--- a/LL parser/parsing table.xlsx
+++ b/LL parser/parsing table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B644D750-9A9B-458C-9483-F6AFCDAA9FDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF529B22-433A-46CF-ABF3-C8A25B5BC51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
   <si>
     <t>program</t>
   </si>
@@ -238,6 +238,14 @@
   </si>
   <si>
     <t>&gt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compoundstmt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -567,7 +575,7 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -651,6 +659,9 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
@@ -753,6 +764,9 @@
       <c r="H12" t="s">
         <v>47</v>
       </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
       <c r="Q12" t="s">
         <v>47</v>
       </c>
@@ -774,6 +788,9 @@
       </c>
       <c r="H14" t="s">
         <v>47</v>
+      </c>
+      <c r="N14" t="s">
+        <v>64</v>
       </c>
       <c r="Q14" t="s">
         <v>47</v>

--- a/LL parser/parsing table.xlsx
+++ b/LL parser/parsing table.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF529B22-433A-46CF-ABF3-C8A25B5BC51D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47F003-FD57-4A46-88BE-657468E82995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
   <si>
     <t>program</t>
   </si>
@@ -161,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NUM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>multexpr arithexprprime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">ID = arithexpr ; </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,14 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -209,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +226,73 @@
   </si>
   <si>
     <t>compoundstmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUM 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>( 11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>== 15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>then 19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>else  20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if ( boolexpr ) then stmt else stmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+ multexpr arithexprprime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- multexpr arithexprprime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ simpleexpr multexprprime</t>
+  </si>
+  <si>
+    <t>* simpleexpr multexprprime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,12 +316,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -289,9 +342,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,23 +626,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="25.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>37</v>
       </c>
@@ -602,49 +659,61 @@
         <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="H1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>54</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>55</v>
       </c>
-      <c r="M1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" t="s">
         <v>57</v>
       </c>
-      <c r="O1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P1" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" t="s">
         <v>61</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" t="s">
         <v>62</v>
       </c>
-      <c r="S1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -655,12 +724,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -671,8 +740,11 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -680,12 +752,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -697,106 +769,127 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="R10" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="S10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>29</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -807,7 +900,7 @@
         <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.2">

--- a/LL parser/parsing table.xlsx
+++ b/LL parser/parsing table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47F003-FD57-4A46-88BE-657468E82995}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58468609-69E5-4BB1-84AF-4F17B3453E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
   <si>
     <t>program</t>
   </si>
@@ -629,7 +629,7 @@
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,6 +768,9 @@
       <c r="F5" t="s">
         <v>40</v>
       </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/LL parser/parsing table.xlsx
+++ b/LL parser/parsing table.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58468609-69E5-4BB1-84AF-4F17B3453E37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A490BD7-05FF-4C43-BAEC-33616CBA8646}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="79">
   <si>
     <t>program</t>
   </si>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>* simpleexpr multexprprime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -342,10 +346,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -628,8 +633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J12" sqref="I12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -845,6 +850,12 @@
       <c r="H12" t="s">
         <v>46</v>
       </c>
+      <c r="I12" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="K12" s="1" t="s">
         <v>74</v>
       </c>
@@ -884,6 +895,12 @@
       </c>
       <c r="J14" t="s">
         <v>76</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="N14" t="s">
         <v>59</v>
